--- a/Client/Assets/Excel/Hero.xlsx
+++ b/Client/Assets/Excel/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E3136-2438-4217-B632-1AFE6F5BD8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687159B-F3D3-4A1D-974F-595AA3171E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,22 +967,22 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="16" customWidth="1"/>
     <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" customWidth="1"/>
     <col min="27" max="27" width="22.625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23.5" style="16" bestFit="1" customWidth="1"/>
@@ -1010,19 +1010,19 @@
       <c r="K1" s="14"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="14"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="14"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="14"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="14"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="14"/>
+      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="14"/>
@@ -1037,11 +1037,6 @@
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="K2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="Z2" s="15"/>
       <c r="AC2" s="15"/>
     </row>
     <row r="3" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
@@ -1290,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
   <dimension ref="B2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
